--- a/src/doc/十二组工作计划表.xlsx
+++ b/src/doc/十二组工作计划表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>工作计划表</t>
   </si>
@@ -69,6 +69,11 @@
     <t>1.查询时支持分页功能
 2.根据错题库随机生成训练题
 3.试卷保存</t>
+  </si>
+  <si>
+    <t>1.2024年12月25日
+2.2024年12月28日
+3.2025年12月31日</t>
   </si>
   <si>
     <t>赵祥宇</t>
@@ -1347,8 +1352,8 @@
   <sheetPr/>
   <dimension ref="B1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>
@@ -1425,7 +1430,9 @@
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -1433,16 +1440,16 @@
     <row r="5" customFormat="1" ht="84" customHeight="1" spans="2:9">
       <c r="B5" s="6"/>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4">
         <v>2308</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1451,16 +1458,16 @@
     <row r="6" customFormat="1" ht="121" customHeight="1" spans="2:9">
       <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4">
         <v>2305</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1469,16 +1476,16 @@
     <row r="7" customFormat="1" ht="105" customHeight="1" spans="2:9">
       <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4">
         <v>2307</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
